--- a/Project.G/Tookit/eg.xlsx
+++ b/Project.G/Tookit/eg.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\Source\Repos\Project.G\Project.G\Tookit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484F9B7-12C5-418B-999B-53B8F7C7A614}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5940" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndexPage" sheetId="1" r:id="rId1"/>
     <sheet name="新增" sheetId="2" r:id="rId2"/>
     <sheet name="编辑" sheetId="3" r:id="rId3"/>
-    <sheet name="选择弹出框" sheetId="4" r:id="rId4"/>
-    <sheet name="弹出框2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="选择弹出框" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>表格字段（中文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,9 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入</t>
-  </si>
-  <si>
     <t>查询字段(英文)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,9 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DatePicker</t>
-  </si>
-  <si>
     <t>TextBox带弹出框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,11 +164,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MES线边仓编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓描述</t>
+    <t>TextBox带弹出框</t>
+  </si>
+  <si>
+    <t>MES线边仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP目标仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,7 +179,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP目标仓编码</t>
+    <t>管理工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,7 +191,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理工厂</t>
+    <t>Combox</t>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字段(英文、大写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIC_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件名称(英文全拼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACTORY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR_STOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_LINESTOCK_CODE</t>
+  </si>
+  <si>
+    <t>TAR_STOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先</t>
+  </si>
+  <si>
+    <t>优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消优先/冻结</t>
+  </si>
+  <si>
+    <t>取消优先/冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MitemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LotNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITEM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME_PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MITEM_PROPERTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME_CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,196 +378,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>TextBox带弹出框</t>
-  </si>
-  <si>
     <t>创建日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP目标仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogicSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP目标仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combox</t>
-  </si>
-  <si>
-    <t>ErpWarehouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES线边仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MesWarehouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CREATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME_CREATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP目标仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询字段(英文、大写)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIC_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件名称(英文全拼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIC_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACTORY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACTORY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_STOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_CODE</t>
-  </si>
-  <si>
-    <t>MES_LINESTOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_STOCK_CODE</t>
-  </si>
-  <si>
-    <t>TAR_STOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MesWarehouseDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR_STOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TarStockCode</t>
+    <t>SUPPLIER_LOT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否作为API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,25 +720,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -742,223 +749,249 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>$H$1:$H$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{CC17664A-4335-45F6-90D4-E41FEEE0E200}">
+      <formula1>$I$1:$I$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>$I$1:$I$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$J$1:$J$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,116 +1000,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$I$1:$I$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1086,12 +1119,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1099,14 +1132,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5B7CC0-50A5-473B-846A-E8D0CE737515}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1115,15 +1161,15 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1132,29 +1178,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1162,67 +1208,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>